--- a/todolist_game_MVP.xlsx
+++ b/todolist_game_MVP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t xml:space="preserve">Rétroplanning jeu Clash of Zombie (version MVP)</t>
   </si>
@@ -154,10 +154,13 @@
     <t xml:space="preserve">Acces depuis Itch.io</t>
   </si>
   <si>
-    <t xml:space="preserve">plateforme Windows, MacOS, et linux</t>
+    <t xml:space="preserve">When downloaded, must run on Windows, MacOS, and linux, 32 and 64 bits ‘puters</t>
   </si>
   <si>
-    <t xml:space="preserve">PC 32 et 64 bites</t>
+    <t xml:space="preserve">Export Ressources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert source code in Lua to Javascript for HTML support.</t>
   </si>
   <si>
     <t xml:space="preserve">Traduction en englais</t>
@@ -836,9 +839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>124560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>321120</xdr:rowOff>
+      <xdr:rowOff>320760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -852,7 +855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8897040" y="877680"/>
-          <a:ext cx="5757480" cy="4317840"/>
+          <a:ext cx="5757120" cy="4317480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1076,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B42" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2644,6 +2647,20 @@
       <c r="AC71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="27"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
@@ -2661,6 +2678,22 @@
       <c r="AC72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="27"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -2677,8 +2710,24 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
+      <c r="B74" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="26"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="27"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -2696,8 +2745,24 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
+      <c r="B75" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="26"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="27"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -2717,6 +2782,20 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="26"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="27"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -2736,6 +2815,20 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="26"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="27"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -2755,6 +2848,20 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="26"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="27"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -2774,6 +2881,20 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="26"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="27"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -2793,6 +2914,20 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="26"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="27"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -2812,6 +2947,20 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="26"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="27"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -2831,6 +2980,22 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
+      <c r="B82" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="26"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="27"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -2850,6 +3015,20 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="26"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="27"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -2869,6 +3048,22 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
+      <c r="B84" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="30"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="31"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -3140,20 +3335,18 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
-      <c r="B96" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="27"/>
+      <c r="B96" s="0"/>
+      <c r="C96" s="0"/>
+      <c r="D96" s="0"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="0"/>
+      <c r="H96" s="0"/>
+      <c r="I96" s="0"/>
+      <c r="J96" s="0"/>
+      <c r="K96" s="0"/>
+      <c r="L96" s="0"/>
+      <c r="M96" s="0"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -3173,22 +3366,18 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
-      <c r="B97" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" s="26"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="26"/>
-      <c r="M97" s="27"/>
+      <c r="B97" s="0"/>
+      <c r="C97" s="0"/>
+      <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="0"/>
+      <c r="H97" s="0"/>
+      <c r="I97" s="0"/>
+      <c r="J97" s="0"/>
+      <c r="K97" s="0"/>
+      <c r="L97" s="0"/>
+      <c r="M97" s="0"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -3208,22 +3397,18 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
-      <c r="B98" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F98" s="26"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="26"/>
-      <c r="M98" s="27"/>
+      <c r="B98" s="0"/>
+      <c r="C98" s="0"/>
+      <c r="D98" s="0"/>
+      <c r="E98" s="0"/>
+      <c r="F98" s="0"/>
+      <c r="G98" s="0"/>
+      <c r="H98" s="0"/>
+      <c r="I98" s="0"/>
+      <c r="J98" s="0"/>
+      <c r="K98" s="0"/>
+      <c r="L98" s="0"/>
+      <c r="M98" s="0"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -3243,22 +3428,18 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
-      <c r="B99" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F99" s="26"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="26"/>
-      <c r="M99" s="27"/>
+      <c r="B99" s="0"/>
+      <c r="C99" s="0"/>
+      <c r="D99" s="0"/>
+      <c r="E99" s="0"/>
+      <c r="F99" s="0"/>
+      <c r="G99" s="0"/>
+      <c r="H99" s="0"/>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
+      <c r="K99" s="0"/>
+      <c r="L99" s="0"/>
+      <c r="M99" s="0"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -3278,22 +3459,18 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
-      <c r="B100" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F100" s="30"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="31"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="31"/>
+      <c r="B100" s="0"/>
+      <c r="C100" s="0"/>
+      <c r="D100" s="0"/>
+      <c r="E100" s="0"/>
+      <c r="F100" s="0"/>
+      <c r="G100" s="0"/>
+      <c r="H100" s="0"/>
+      <c r="I100" s="0"/>
+      <c r="J100" s="0"/>
+      <c r="K100" s="0"/>
+      <c r="L100" s="0"/>
+      <c r="M100" s="0"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -3313,18 +3490,18 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="B101" s="0"/>
+      <c r="C101" s="0"/>
+      <c r="D101" s="0"/>
+      <c r="E101" s="0"/>
+      <c r="F101" s="0"/>
+      <c r="G101" s="0"/>
+      <c r="H101" s="0"/>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
+      <c r="K101" s="0"/>
+      <c r="L101" s="0"/>
+      <c r="M101" s="0"/>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -3344,18 +3521,18 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
+      <c r="B102" s="0"/>
+      <c r="C102" s="0"/>
+      <c r="D102" s="0"/>
+      <c r="E102" s="0"/>
+      <c r="F102" s="0"/>
+      <c r="G102" s="0"/>
+      <c r="H102" s="0"/>
+      <c r="I102" s="0"/>
+      <c r="J102" s="0"/>
+      <c r="K102" s="0"/>
+      <c r="L102" s="0"/>
+      <c r="M102" s="0"/>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -3375,18 +3552,18 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
+      <c r="B103" s="0"/>
+      <c r="C103" s="0"/>
+      <c r="D103" s="0"/>
+      <c r="E103" s="0"/>
+      <c r="F103" s="0"/>
+      <c r="G103" s="0"/>
+      <c r="H103" s="0"/>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+      <c r="K103" s="0"/>
+      <c r="L103" s="0"/>
+      <c r="M103" s="0"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -3406,18 +3583,18 @@
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
+      <c r="B104" s="0"/>
+      <c r="C104" s="0"/>
+      <c r="D104" s="0"/>
+      <c r="E104" s="0"/>
+      <c r="F104" s="0"/>
+      <c r="G104" s="0"/>
+      <c r="H104" s="0"/>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
+      <c r="K104" s="0"/>
+      <c r="L104" s="0"/>
+      <c r="M104" s="0"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -3437,18 +3614,18 @@
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
+      <c r="B105" s="0"/>
+      <c r="C105" s="0"/>
+      <c r="D105" s="0"/>
+      <c r="E105" s="0"/>
+      <c r="F105" s="0"/>
+      <c r="G105" s="0"/>
+      <c r="H105" s="0"/>
+      <c r="I105" s="0"/>
+      <c r="J105" s="0"/>
+      <c r="K105" s="0"/>
+      <c r="L105" s="0"/>
+      <c r="M105" s="0"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -3468,18 +3645,18 @@
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
+      <c r="B106" s="0"/>
+      <c r="C106" s="0"/>
+      <c r="D106" s="0"/>
+      <c r="E106" s="0"/>
+      <c r="F106" s="0"/>
+      <c r="G106" s="0"/>
+      <c r="H106" s="0"/>
+      <c r="I106" s="0"/>
+      <c r="J106" s="0"/>
+      <c r="K106" s="0"/>
+      <c r="L106" s="0"/>
+      <c r="M106" s="0"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -3499,18 +3676,18 @@
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
+      <c r="B107" s="0"/>
+      <c r="C107" s="0"/>
+      <c r="D107" s="0"/>
+      <c r="E107" s="0"/>
+      <c r="F107" s="0"/>
+      <c r="G107" s="0"/>
+      <c r="H107" s="0"/>
+      <c r="I107" s="0"/>
+      <c r="J107" s="0"/>
+      <c r="K107" s="0"/>
+      <c r="L107" s="0"/>
+      <c r="M107" s="0"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -3530,18 +3707,18 @@
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
+      <c r="B108" s="0"/>
+      <c r="C108" s="0"/>
+      <c r="D108" s="0"/>
+      <c r="E108" s="0"/>
+      <c r="F108" s="0"/>
+      <c r="G108" s="0"/>
+      <c r="H108" s="0"/>
+      <c r="I108" s="0"/>
+      <c r="J108" s="0"/>
+      <c r="K108" s="0"/>
+      <c r="L108" s="0"/>
+      <c r="M108" s="0"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>

--- a/todolist_game_MVP.xlsx
+++ b/todolist_game_MVP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t xml:space="preserve">Rétroplanning jeu Clash of Zombie (version MVP)</t>
   </si>
@@ -55,34 +55,34 @@
     <t xml:space="preserve">GAMEPLAY</t>
   </si>
   <si>
-    <t xml:space="preserve">cycle jour nuit</t>
+    <t xml:space="preserve">cycle jour nuit avec transition de décor</t>
   </si>
   <si>
-    <t xml:space="preserve">Power-ups</t>
+    <t xml:space="preserve">Creer les 4 power ups life, armure etage, et force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creer un timer</t>
   </si>
   <si>
     <t xml:space="preserve">HERO</t>
   </si>
   <si>
-    <t xml:space="preserve">vie, armure</t>
+    <t xml:space="preserve">Creer des points de vie et d’arumre</t>
   </si>
   <si>
-    <t xml:space="preserve">animations du hero</t>
+    <t xml:space="preserve">regeneration de la vie</t>
   </si>
   <si>
-    <t xml:space="preserve">pup_lf, pup_arm, pup_slw, pup_mtl pup_str, pup_sz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start at life100 armor 0 mult x1, story a 0 et size a 3</t>
+    <t xml:space="preserve">Info-bulle quand survolé</t>
   </si>
   <si>
     <t xml:space="preserve">MAIN MENU</t>
   </si>
   <si>
-    <t xml:space="preserve">Creer les elements score, PLAY, SCORES, le score, CREDITS, QUITTER et info-bulles sur le decor</t>
+    <t xml:space="preserve">Creer l’interface du menu de jeu</t>
   </si>
   <si>
-    <t xml:space="preserve">enregistrer le score apres redémarrage</t>
+    <t xml:space="preserve">Enregistrement du score en local</t>
   </si>
   <si>
     <t xml:space="preserve">Décor et animation des elements de decor</t>
@@ -94,16 +94,10 @@
     <t xml:space="preserve">spawn aleatoire des vagues de zombies</t>
   </si>
   <si>
-    <t xml:space="preserve">animations des ennemis</t>
+    <t xml:space="preserve">Pourcentage de la vague de zombie</t>
   </si>
   <si>
-    <t xml:space="preserve">Pourcentage de progression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 types de zombies homme, femme, canard, pute, cuisnier,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systeme de niveau des zombies</t>
+    <t xml:space="preserve">5 types homme, femme, poulet, pute, cuisnier,</t>
   </si>
   <si>
     <t xml:space="preserve">animation BOSS phase1 2 mort</t>
@@ -115,37 +109,25 @@
     <t xml:space="preserve">MUSICS</t>
   </si>
   <si>
-    <t xml:space="preserve">A 2 sec jinggle at the start of the game</t>
+    <t xml:space="preserve">Screens : menu, play_day, play_night</t>
   </si>
   <si>
-    <t xml:space="preserve">MENU</t>
+    <t xml:space="preserve">DECOR</t>
   </si>
   <si>
-    <t xml:space="preserve">PLAY DAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAY NIGHT</t>
+    <t xml:space="preserve">interaction</t>
   </si>
   <si>
     <t xml:space="preserve">SOUNDS EFFECTS</t>
   </si>
   <si>
-    <t xml:space="preserve">powerup</t>
+    <t xml:space="preserve">Game  : hover décor item, button clicked, intro screen, loading screen, quit screen running gag, easter egg.</t>
   </si>
   <si>
-    <t xml:space="preserve">hero hit</t>
+    <t xml:space="preserve">Hero : hit, killed, low life, level up</t>
   </si>
   <si>
-    <t xml:space="preserve">hero killed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zombie killed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOSS killed</t>
+    <t xml:space="preserve">Zombie : (no hit), killed, moan, hit the player, boss spawn, boss defeat, boss pass to phase 2</t>
   </si>
   <si>
     <t xml:space="preserve">Jouabilitée</t>
@@ -700,7 +682,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -728,14 +710,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -839,9 +813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>123840</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>320760</xdr:rowOff>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -855,7 +829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8897040" y="877680"/>
-          <a:ext cx="5757120" cy="4317480"/>
+          <a:ext cx="5756400" cy="4316760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,8 +1053,8 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1326,13 +1300,13 @@
       <c r="L8" s="26"/>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>5</v>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -1366,7 +1340,9 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="25"/>
+      <c r="B11" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1411,7 @@
     <row r="15" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
@@ -1449,13 +1425,13 @@
       <c r="L15" s="26"/>
       <c r="M15" s="27"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>5</v>
+      <c r="C16" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -1471,10 +1447,10 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>5</v>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -1487,10 +1463,10 @@
       <c r="L17" s="26"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
@@ -1508,9 +1484,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="B19" s="25"/>
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
@@ -1644,7 +1618,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="27"/>
     </row>
-    <row r="27" customFormat="false" ht="51.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="25" t="s">
         <v>19</v>
@@ -1663,7 +1637,7 @@
       <c r="L27" s="26"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="25" t="s">
         <v>20</v>
@@ -1699,7 +1673,7 @@
       <c r="L29" s="26"/>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="25" t="s">
         <v>21</v>
@@ -1755,8 +1729,8 @@
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="13" t="s">
-        <v>5</v>
+      <c r="C33" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -1858,11 +1832,9 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>5</v>
+      <c r="B39" s="25"/>
+      <c r="C39" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -1878,10 +1850,10 @@
     <row r="40" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>5</v>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -1897,7 +1869,7 @@
     <row r="41" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>2</v>
@@ -1932,9 +1904,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="B43" s="25"/>
       <c r="C43" s="5" t="s">
         <v>2</v>
       </c>
@@ -1952,10 +1922,10 @@
     <row r="44" customFormat="false" ht="25.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>5</v>
+      <c r="C44" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -1971,7 +1941,7 @@
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>2</v>
@@ -2024,7 +1994,7 @@
     <row r="48" customFormat="false" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
       <c r="B48" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="25"/>
@@ -2041,7 +2011,7 @@
     <row r="49" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>2</v>
@@ -2059,11 +2029,9 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
-      <c r="B50" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>5</v>
+      <c r="B50" s="25"/>
+      <c r="C50" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
@@ -2094,11 +2062,9 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
-      <c r="B51" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>5</v>
+      <c r="B51" s="25"/>
+      <c r="C51" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -2129,11 +2095,9 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
-      <c r="B52" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>5</v>
+      <c r="B52" s="25"/>
+      <c r="C52" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -2164,7 +2128,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
-      <c r="C53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="26"/>
@@ -2194,7 +2161,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="C54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26"/>
@@ -2224,7 +2194,10 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
-      <c r="C55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="26"/>
@@ -2252,9 +2225,12 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
-      <c r="C56" s="25"/>
+      <c r="B56" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="28"/>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
       <c r="F56" s="26"/>
@@ -2284,7 +2260,12 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
-      <c r="C57" s="25"/>
+      <c r="B57" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="26"/>
@@ -2314,7 +2295,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
-      <c r="C58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
       <c r="F58" s="26"/>
@@ -2344,7 +2328,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="26"/>
@@ -2374,10 +2361,10 @@
     </row>
     <row r="60" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
-      <c r="B60" s="23" t="s">
-        <v>35</v>
+      <c r="B60" s="25"/>
+      <c r="C60" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="C60" s="28"/>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="26"/>
@@ -2405,14 +2392,12 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="25" t="s">
-        <v>36</v>
+      <c r="B61" s="23" t="s">
+        <v>32</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C61" s="28"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="26"/>
@@ -2440,13 +2425,23 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="27"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -2463,9 +2458,9 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="52.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>2</v>
@@ -2486,12 +2481,12 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="61.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>1</v>
+      <c r="C64" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -2510,12 +2505,6 @@
       <c r="AC64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -2533,12 +2522,6 @@
       <c r="AC65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -2556,8 +2539,6 @@
       <c r="AC66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -2575,7 +2556,6 @@
       <c r="AC67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C68" s="25"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -2593,7 +2573,6 @@
       <c r="AC68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C69" s="25"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -2611,7 +2590,6 @@
       <c r="AC69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C70" s="25"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -2629,7 +2607,6 @@
       <c r="AC70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C71" s="25"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -2647,25 +2624,6 @@
       <c r="AC71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="27"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
@@ -2678,27 +2636,6 @@
       <c r="AC72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="27"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
@@ -2711,29 +2648,6 @@
       <c r="AC73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2"/>
-      <c r="B74" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
@@ -2746,29 +2660,6 @@
       <c r="AC74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
-      <c r="B75" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
@@ -2781,27 +2672,6 @@
       <c r="AC75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" s="26"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
@@ -2814,27 +2684,6 @@
       <c r="AC76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
@@ -2847,27 +2696,6 @@
       <c r="AC77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
@@ -2880,27 +2708,6 @@
       <c r="AC78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="26"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
@@ -2913,27 +2720,6 @@
       <c r="AC79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="26"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
@@ -2945,28 +2731,7 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
+    <row r="81" customFormat="false" ht="52.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
@@ -2978,30 +2743,7 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2"/>
-      <c r="B82" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="26"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
+    <row r="82" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
@@ -3015,26 +2757,6 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="26"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
@@ -3048,28 +2770,6 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
-      <c r="B84" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="30"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
@@ -3083,7 +2783,20 @@
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="B85" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="27"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -3102,7 +2815,22 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="B86" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="26"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="27"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -3121,6 +2849,23 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
+      <c r="B87" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="26"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -3139,6 +2884,23 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
+      <c r="B88" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="26"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -3157,6 +2919,21 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="26"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -3175,6 +2952,21 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="26"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
@@ -3193,6 +2985,21 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="26"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -3211,18 +3018,20 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="26"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="27"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -3242,18 +3051,20 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="26"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="27"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -3273,18 +3084,20 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="26"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="27"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -3304,18 +3117,22 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
+      <c r="B95" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="26"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="27"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -3335,18 +3152,20 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
-      <c r="B96" s="0"/>
-      <c r="C96" s="0"/>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
-      <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
-      <c r="J96" s="0"/>
-      <c r="K96" s="0"/>
-      <c r="L96" s="0"/>
-      <c r="M96" s="0"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="26"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="27"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -3366,18 +3185,22 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
-      <c r="B97" s="0"/>
-      <c r="C97" s="0"/>
-      <c r="D97" s="0"/>
-      <c r="E97" s="0"/>
-      <c r="F97" s="0"/>
-      <c r="G97" s="0"/>
-      <c r="H97" s="0"/>
-      <c r="I97" s="0"/>
-      <c r="J97" s="0"/>
-      <c r="K97" s="0"/>
-      <c r="L97" s="0"/>
-      <c r="M97" s="0"/>
+      <c r="B97" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="30"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="30"/>
+      <c r="M97" s="31"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -3397,18 +3220,6 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
-      <c r="B98" s="0"/>
-      <c r="C98" s="0"/>
-      <c r="D98" s="0"/>
-      <c r="E98" s="0"/>
-      <c r="F98" s="0"/>
-      <c r="G98" s="0"/>
-      <c r="H98" s="0"/>
-      <c r="I98" s="0"/>
-      <c r="J98" s="0"/>
-      <c r="K98" s="0"/>
-      <c r="L98" s="0"/>
-      <c r="M98" s="0"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -3428,18 +3239,6 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
-      <c r="B99" s="0"/>
-      <c r="C99" s="0"/>
-      <c r="D99" s="0"/>
-      <c r="E99" s="0"/>
-      <c r="F99" s="0"/>
-      <c r="G99" s="0"/>
-      <c r="H99" s="0"/>
-      <c r="I99" s="0"/>
-      <c r="J99" s="0"/>
-      <c r="K99" s="0"/>
-      <c r="L99" s="0"/>
-      <c r="M99" s="0"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -3459,19 +3258,6 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
-      <c r="B100" s="0"/>
-      <c r="C100" s="0"/>
-      <c r="D100" s="0"/>
-      <c r="E100" s="0"/>
-      <c r="F100" s="0"/>
-      <c r="G100" s="0"/>
-      <c r="H100" s="0"/>
-      <c r="I100" s="0"/>
-      <c r="J100" s="0"/>
-      <c r="K100" s="0"/>
-      <c r="L100" s="0"/>
-      <c r="M100" s="0"/>
-      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -3490,19 +3276,6 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
-      <c r="B101" s="0"/>
-      <c r="C101" s="0"/>
-      <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
-      <c r="F101" s="0"/>
-      <c r="G101" s="0"/>
-      <c r="H101" s="0"/>
-      <c r="I101" s="0"/>
-      <c r="J101" s="0"/>
-      <c r="K101" s="0"/>
-      <c r="L101" s="0"/>
-      <c r="M101" s="0"/>
-      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -3521,19 +3294,6 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
-      <c r="B102" s="0"/>
-      <c r="C102" s="0"/>
-      <c r="D102" s="0"/>
-      <c r="E102" s="0"/>
-      <c r="F102" s="0"/>
-      <c r="G102" s="0"/>
-      <c r="H102" s="0"/>
-      <c r="I102" s="0"/>
-      <c r="J102" s="0"/>
-      <c r="K102" s="0"/>
-      <c r="L102" s="0"/>
-      <c r="M102" s="0"/>
-      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -3552,18 +3312,6 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
-      <c r="B103" s="0"/>
-      <c r="C103" s="0"/>
-      <c r="D103" s="0"/>
-      <c r="E103" s="0"/>
-      <c r="F103" s="0"/>
-      <c r="G103" s="0"/>
-      <c r="H103" s="0"/>
-      <c r="I103" s="0"/>
-      <c r="J103" s="0"/>
-      <c r="K103" s="0"/>
-      <c r="L103" s="0"/>
-      <c r="M103" s="0"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -3583,18 +3331,6 @@
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
-      <c r="B104" s="0"/>
-      <c r="C104" s="0"/>
-      <c r="D104" s="0"/>
-      <c r="E104" s="0"/>
-      <c r="F104" s="0"/>
-      <c r="G104" s="0"/>
-      <c r="H104" s="0"/>
-      <c r="I104" s="0"/>
-      <c r="J104" s="0"/>
-      <c r="K104" s="0"/>
-      <c r="L104" s="0"/>
-      <c r="M104" s="0"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -3614,18 +3350,6 @@
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
-      <c r="B105" s="0"/>
-      <c r="C105" s="0"/>
-      <c r="D105" s="0"/>
-      <c r="E105" s="0"/>
-      <c r="F105" s="0"/>
-      <c r="G105" s="0"/>
-      <c r="H105" s="0"/>
-      <c r="I105" s="0"/>
-      <c r="J105" s="0"/>
-      <c r="K105" s="0"/>
-      <c r="L105" s="0"/>
-      <c r="M105" s="0"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -3645,18 +3369,6 @@
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
-      <c r="B106" s="0"/>
-      <c r="C106" s="0"/>
-      <c r="D106" s="0"/>
-      <c r="E106" s="0"/>
-      <c r="F106" s="0"/>
-      <c r="G106" s="0"/>
-      <c r="H106" s="0"/>
-      <c r="I106" s="0"/>
-      <c r="J106" s="0"/>
-      <c r="K106" s="0"/>
-      <c r="L106" s="0"/>
-      <c r="M106" s="0"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -3676,18 +3388,6 @@
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
-      <c r="B107" s="0"/>
-      <c r="C107" s="0"/>
-      <c r="D107" s="0"/>
-      <c r="E107" s="0"/>
-      <c r="F107" s="0"/>
-      <c r="G107" s="0"/>
-      <c r="H107" s="0"/>
-      <c r="I107" s="0"/>
-      <c r="J107" s="0"/>
-      <c r="K107" s="0"/>
-      <c r="L107" s="0"/>
-      <c r="M107" s="0"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -3707,18 +3407,6 @@
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
-      <c r="B108" s="0"/>
-      <c r="C108" s="0"/>
-      <c r="D108" s="0"/>
-      <c r="E108" s="0"/>
-      <c r="F108" s="0"/>
-      <c r="G108" s="0"/>
-      <c r="H108" s="0"/>
-      <c r="I108" s="0"/>
-      <c r="J108" s="0"/>
-      <c r="K108" s="0"/>
-      <c r="L108" s="0"/>
-      <c r="M108" s="0"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>

--- a/todolist_game_MVP.xlsx
+++ b/todolist_game_MVP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t xml:space="preserve">Rétroplanning jeu Clash of Zombie (version MVP)</t>
   </si>
@@ -55,34 +55,34 @@
     <t xml:space="preserve">GAMEPLAY</t>
   </si>
   <si>
-    <t xml:space="preserve">cycle jour nuit</t>
+    <t xml:space="preserve">cycle jour nuit avec transition de décor</t>
   </si>
   <si>
-    <t xml:space="preserve">Power-ups</t>
+    <t xml:space="preserve">Creer les 4 power ups life, armure etage, et force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creer un timer</t>
   </si>
   <si>
     <t xml:space="preserve">HERO</t>
   </si>
   <si>
-    <t xml:space="preserve">vie, armure</t>
+    <t xml:space="preserve">Creer des points de vie et d’arumre</t>
   </si>
   <si>
-    <t xml:space="preserve">animations du hero</t>
+    <t xml:space="preserve">regeneration de la vie</t>
   </si>
   <si>
-    <t xml:space="preserve">pup_lf, pup_arm, pup_slw, pup_mtl pup_str, pup_sz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start at life100 armor 0 mult x1, story a 0 et size a 3</t>
+    <t xml:space="preserve">Info-bulle quand survolé</t>
   </si>
   <si>
     <t xml:space="preserve">MAIN MENU</t>
   </si>
   <si>
-    <t xml:space="preserve">Creer les elements score, PLAY, SCORES, le score, CREDITS, QUITTER et info-bulles sur le decor</t>
+    <t xml:space="preserve">Creer l’interface du menu de jeu</t>
   </si>
   <si>
-    <t xml:space="preserve">enregistrer le score apres redémarrage</t>
+    <t xml:space="preserve">Enregistrement du score en local</t>
   </si>
   <si>
     <t xml:space="preserve">Décor et animation des elements de decor</t>
@@ -94,16 +94,10 @@
     <t xml:space="preserve">spawn aleatoire des vagues de zombies</t>
   </si>
   <si>
-    <t xml:space="preserve">animations des ennemis</t>
+    <t xml:space="preserve">Pourcentage de la vague de zombie</t>
   </si>
   <si>
-    <t xml:space="preserve">Pourcentage de progression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 types de zombies homme, femme, canard, pute, cuisnier,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systeme de niveau des zombies</t>
+    <t xml:space="preserve">5 types homme, femme, poulet, pute, cuisnier,</t>
   </si>
   <si>
     <t xml:space="preserve">animation BOSS phase1 2 mort</t>
@@ -115,37 +109,25 @@
     <t xml:space="preserve">MUSICS</t>
   </si>
   <si>
-    <t xml:space="preserve">A 2 sec jinggle at the start of the game</t>
+    <t xml:space="preserve">Screens : menu, play_day, play_night</t>
   </si>
   <si>
-    <t xml:space="preserve">MENU</t>
+    <t xml:space="preserve">DECOR</t>
   </si>
   <si>
-    <t xml:space="preserve">PLAY DAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAY NIGHT</t>
+    <t xml:space="preserve">interaction</t>
   </si>
   <si>
     <t xml:space="preserve">SOUNDS EFFECTS</t>
   </si>
   <si>
-    <t xml:space="preserve">powerup</t>
+    <t xml:space="preserve">Game  : hover décor item, button clicked, intro screen, loading screen, quit screen running gag, easter egg.</t>
   </si>
   <si>
-    <t xml:space="preserve">hero hit</t>
+    <t xml:space="preserve">Hero : hit, killed, low life, level up</t>
   </si>
   <si>
-    <t xml:space="preserve">hero killed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zombie killed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOSS killed</t>
+    <t xml:space="preserve">Zombie : (no hit), killed, moan, hit the player, boss spawn, boss defeat, boss pass to phase 2</t>
   </si>
   <si>
     <t xml:space="preserve">Jouabilitée</t>
@@ -700,7 +682,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -728,14 +710,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -839,9 +813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>123480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>320760</xdr:rowOff>
+      <xdr:rowOff>207360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -855,7 +829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8897040" y="877680"/>
-          <a:ext cx="5757120" cy="4317480"/>
+          <a:ext cx="5756040" cy="4316400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,8 +1053,8 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1326,13 +1300,13 @@
       <c r="L8" s="26"/>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>5</v>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -1366,7 +1340,9 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="25"/>
+      <c r="B11" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1411,7 @@
     <row r="15" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
@@ -1449,13 +1425,13 @@
       <c r="L15" s="26"/>
       <c r="M15" s="27"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>5</v>
+      <c r="C16" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -1471,10 +1447,10 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>5</v>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -1487,10 +1463,10 @@
       <c r="L17" s="26"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
@@ -1508,9 +1484,7 @@
     </row>
     <row r="19" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="B19" s="25"/>
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
@@ -1644,7 +1618,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="27"/>
     </row>
-    <row r="27" customFormat="false" ht="51.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="25" t="s">
         <v>19</v>
@@ -1663,7 +1637,7 @@
       <c r="L27" s="26"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="25" t="s">
         <v>20</v>
@@ -1699,7 +1673,7 @@
       <c r="L29" s="26"/>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="25" t="s">
         <v>21</v>
@@ -1755,8 +1729,8 @@
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="13" t="s">
-        <v>5</v>
+      <c r="C33" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -1858,11 +1832,9 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>5</v>
+      <c r="B39" s="25"/>
+      <c r="C39" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -1878,10 +1850,10 @@
     <row r="40" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>5</v>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -1897,7 +1869,7 @@
     <row r="41" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>2</v>
@@ -1932,9 +1904,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="B43" s="25"/>
       <c r="C43" s="5" t="s">
         <v>2</v>
       </c>
@@ -1952,10 +1922,10 @@
     <row r="44" customFormat="false" ht="25.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>5</v>
+      <c r="C44" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -1971,7 +1941,7 @@
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>2</v>
@@ -2024,7 +1994,7 @@
     <row r="48" customFormat="false" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
       <c r="B48" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="25"/>
@@ -2041,7 +2011,7 @@
     <row r="49" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>2</v>
@@ -2059,11 +2029,9 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
-      <c r="B50" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>5</v>
+      <c r="B50" s="25"/>
+      <c r="C50" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
@@ -2094,11 +2062,9 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
-      <c r="B51" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>5</v>
+      <c r="B51" s="25"/>
+      <c r="C51" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -2129,11 +2095,9 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
-      <c r="B52" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>5</v>
+      <c r="B52" s="25"/>
+      <c r="C52" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -2164,7 +2128,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
-      <c r="C53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="26"/>
@@ -2194,7 +2161,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="C54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26"/>
@@ -2224,7 +2194,10 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
-      <c r="C55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="26"/>
@@ -2252,9 +2225,12 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="38.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
-      <c r="C56" s="25"/>
+      <c r="B56" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="28"/>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
       <c r="F56" s="26"/>
@@ -2284,7 +2260,12 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
-      <c r="C57" s="25"/>
+      <c r="B57" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="26"/>
@@ -2314,7 +2295,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
-      <c r="C58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
       <c r="F58" s="26"/>
@@ -2344,7 +2328,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="26"/>
@@ -2374,10 +2361,10 @@
     </row>
     <row r="60" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
-      <c r="B60" s="23" t="s">
-        <v>35</v>
+      <c r="B60" s="25"/>
+      <c r="C60" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="C60" s="28"/>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="26"/>
@@ -2405,14 +2392,12 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="25" t="s">
-        <v>36</v>
+      <c r="B61" s="23" t="s">
+        <v>32</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C61" s="28"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="26"/>
@@ -2440,13 +2425,23 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="27"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -2463,13 +2458,22 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="52.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="27"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -2486,13 +2490,22 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="61.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>1</v>
+      <c r="C64" s="5" t="s">
+        <v>2</v>
       </c>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="27"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -2510,12 +2523,6 @@
       <c r="AC64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -2533,12 +2540,6 @@
       <c r="AC65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -2556,8 +2557,6 @@
       <c r="AC66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -2575,7 +2574,6 @@
       <c r="AC67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C68" s="25"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -2593,7 +2591,6 @@
       <c r="AC68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C69" s="25"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -2611,7 +2608,6 @@
       <c r="AC69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C70" s="25"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -2629,7 +2625,6 @@
       <c r="AC70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C71" s="25"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -2647,25 +2642,6 @@
       <c r="AC71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="27"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
@@ -2678,27 +2654,6 @@
       <c r="AC72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="27"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
@@ -2711,29 +2666,6 @@
       <c r="AC73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2"/>
-      <c r="B74" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
@@ -2746,29 +2678,6 @@
       <c r="AC74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
-      <c r="B75" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
@@ -2781,27 +2690,6 @@
       <c r="AC75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" s="26"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
@@ -2814,27 +2702,6 @@
       <c r="AC76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
@@ -2847,27 +2714,6 @@
       <c r="AC77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
@@ -2880,27 +2726,6 @@
       <c r="AC78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="26"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
@@ -2913,27 +2738,6 @@
       <c r="AC79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="26"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
@@ -2945,28 +2749,7 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
+    <row r="81" customFormat="false" ht="52.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
@@ -2978,30 +2761,7 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2"/>
-      <c r="B82" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="26"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
+    <row r="82" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
@@ -3015,26 +2775,6 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="26"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
@@ -3048,28 +2788,6 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
-      <c r="B84" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="30"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
@@ -3083,7 +2801,20 @@
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="B85" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="27"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -3102,7 +2833,22 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="B86" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="26"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="27"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -3121,6 +2867,23 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
+      <c r="B87" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="26"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -3139,6 +2902,23 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
+      <c r="B88" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="26"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -3157,6 +2937,21 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="26"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -3175,6 +2970,21 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="26"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
@@ -3193,6 +3003,21 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="26"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -3211,18 +3036,20 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="26"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="27"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -3242,18 +3069,20 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="26"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="27"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -3273,18 +3102,20 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="26"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="27"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -3304,18 +3135,22 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
+      <c r="B95" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="26"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="27"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -3335,18 +3170,20 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
-      <c r="B96" s="0"/>
-      <c r="C96" s="0"/>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
-      <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
-      <c r="J96" s="0"/>
-      <c r="K96" s="0"/>
-      <c r="L96" s="0"/>
-      <c r="M96" s="0"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="26"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="27"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -3366,18 +3203,22 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
-      <c r="B97" s="0"/>
-      <c r="C97" s="0"/>
-      <c r="D97" s="0"/>
-      <c r="E97" s="0"/>
-      <c r="F97" s="0"/>
-      <c r="G97" s="0"/>
-      <c r="H97" s="0"/>
-      <c r="I97" s="0"/>
-      <c r="J97" s="0"/>
-      <c r="K97" s="0"/>
-      <c r="L97" s="0"/>
-      <c r="M97" s="0"/>
+      <c r="B97" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="30"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="30"/>
+      <c r="M97" s="31"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -3397,18 +3238,6 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
-      <c r="B98" s="0"/>
-      <c r="C98" s="0"/>
-      <c r="D98" s="0"/>
-      <c r="E98" s="0"/>
-      <c r="F98" s="0"/>
-      <c r="G98" s="0"/>
-      <c r="H98" s="0"/>
-      <c r="I98" s="0"/>
-      <c r="J98" s="0"/>
-      <c r="K98" s="0"/>
-      <c r="L98" s="0"/>
-      <c r="M98" s="0"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -3428,18 +3257,6 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
-      <c r="B99" s="0"/>
-      <c r="C99" s="0"/>
-      <c r="D99" s="0"/>
-      <c r="E99" s="0"/>
-      <c r="F99" s="0"/>
-      <c r="G99" s="0"/>
-      <c r="H99" s="0"/>
-      <c r="I99" s="0"/>
-      <c r="J99" s="0"/>
-      <c r="K99" s="0"/>
-      <c r="L99" s="0"/>
-      <c r="M99" s="0"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -3459,19 +3276,6 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
-      <c r="B100" s="0"/>
-      <c r="C100" s="0"/>
-      <c r="D100" s="0"/>
-      <c r="E100" s="0"/>
-      <c r="F100" s="0"/>
-      <c r="G100" s="0"/>
-      <c r="H100" s="0"/>
-      <c r="I100" s="0"/>
-      <c r="J100" s="0"/>
-      <c r="K100" s="0"/>
-      <c r="L100" s="0"/>
-      <c r="M100" s="0"/>
-      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -3490,19 +3294,6 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
-      <c r="B101" s="0"/>
-      <c r="C101" s="0"/>
-      <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
-      <c r="F101" s="0"/>
-      <c r="G101" s="0"/>
-      <c r="H101" s="0"/>
-      <c r="I101" s="0"/>
-      <c r="J101" s="0"/>
-      <c r="K101" s="0"/>
-      <c r="L101" s="0"/>
-      <c r="M101" s="0"/>
-      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -3521,19 +3312,6 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
-      <c r="B102" s="0"/>
-      <c r="C102" s="0"/>
-      <c r="D102" s="0"/>
-      <c r="E102" s="0"/>
-      <c r="F102" s="0"/>
-      <c r="G102" s="0"/>
-      <c r="H102" s="0"/>
-      <c r="I102" s="0"/>
-      <c r="J102" s="0"/>
-      <c r="K102" s="0"/>
-      <c r="L102" s="0"/>
-      <c r="M102" s="0"/>
-      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -3552,18 +3330,6 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
-      <c r="B103" s="0"/>
-      <c r="C103" s="0"/>
-      <c r="D103" s="0"/>
-      <c r="E103" s="0"/>
-      <c r="F103" s="0"/>
-      <c r="G103" s="0"/>
-      <c r="H103" s="0"/>
-      <c r="I103" s="0"/>
-      <c r="J103" s="0"/>
-      <c r="K103" s="0"/>
-      <c r="L103" s="0"/>
-      <c r="M103" s="0"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -3583,18 +3349,6 @@
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
-      <c r="B104" s="0"/>
-      <c r="C104" s="0"/>
-      <c r="D104" s="0"/>
-      <c r="E104" s="0"/>
-      <c r="F104" s="0"/>
-      <c r="G104" s="0"/>
-      <c r="H104" s="0"/>
-      <c r="I104" s="0"/>
-      <c r="J104" s="0"/>
-      <c r="K104" s="0"/>
-      <c r="L104" s="0"/>
-      <c r="M104" s="0"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -3614,18 +3368,6 @@
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
-      <c r="B105" s="0"/>
-      <c r="C105" s="0"/>
-      <c r="D105" s="0"/>
-      <c r="E105" s="0"/>
-      <c r="F105" s="0"/>
-      <c r="G105" s="0"/>
-      <c r="H105" s="0"/>
-      <c r="I105" s="0"/>
-      <c r="J105" s="0"/>
-      <c r="K105" s="0"/>
-      <c r="L105" s="0"/>
-      <c r="M105" s="0"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -3645,18 +3387,6 @@
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
-      <c r="B106" s="0"/>
-      <c r="C106" s="0"/>
-      <c r="D106" s="0"/>
-      <c r="E106" s="0"/>
-      <c r="F106" s="0"/>
-      <c r="G106" s="0"/>
-      <c r="H106" s="0"/>
-      <c r="I106" s="0"/>
-      <c r="J106" s="0"/>
-      <c r="K106" s="0"/>
-      <c r="L106" s="0"/>
-      <c r="M106" s="0"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -3676,18 +3406,6 @@
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
-      <c r="B107" s="0"/>
-      <c r="C107" s="0"/>
-      <c r="D107" s="0"/>
-      <c r="E107" s="0"/>
-      <c r="F107" s="0"/>
-      <c r="G107" s="0"/>
-      <c r="H107" s="0"/>
-      <c r="I107" s="0"/>
-      <c r="J107" s="0"/>
-      <c r="K107" s="0"/>
-      <c r="L107" s="0"/>
-      <c r="M107" s="0"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -3707,18 +3425,6 @@
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
-      <c r="B108" s="0"/>
-      <c r="C108" s="0"/>
-      <c r="D108" s="0"/>
-      <c r="E108" s="0"/>
-      <c r="F108" s="0"/>
-      <c r="G108" s="0"/>
-      <c r="H108" s="0"/>
-      <c r="I108" s="0"/>
-      <c r="J108" s="0"/>
-      <c r="K108" s="0"/>
-      <c r="L108" s="0"/>
-      <c r="M108" s="0"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>

--- a/todolist_game_MVP.xlsx
+++ b/todolist_game_MVP.xlsx
@@ -813,9 +813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>123840</xdr:colOff>
+      <xdr:colOff>123480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>207720</xdr:rowOff>
+      <xdr:rowOff>207360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -829,7 +829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8897040" y="877680"/>
-          <a:ext cx="5756400" cy="4316760"/>
+          <a:ext cx="5756040" cy="4316400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1053,8 +1053,8 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2465,6 +2465,15 @@
       <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="27"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -2488,6 +2497,15 @@
       <c r="C64" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="27"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
